--- a/psychometric_scale/stuff/SSMQ.xlsx
+++ b/psychometric_scale/stuff/SSMQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabienvinckier/Desktop/home/projects/git/Misc/psychometric_scale/stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Desktop/psychometric_scale/stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C419AE2F-9E13-FA43-89BE-DD8D84367A68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1460" windowWidth="26800" windowHeight="16040" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="1460" windowWidth="26800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,60 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>1. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à retrouver et à me remémorer le nom de personnes ou des souvenirs que je sais connaître est...</t>
-  </si>
-  <si>
-    <t>2. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Mes parents et connaissances jugent que ma mémoire actuelle est...</t>
-  </si>
-  <si>
-    <t>3. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à me souvenir de choses quand j’essaye vraiment est...</t>
-  </si>
-  <si>
-    <t>4. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à retenir des choses que j'ai apprise est...</t>
-  </si>
-  <si>
-    <t>5. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Si l’on m’interrogeait sur ce questionnaire dans un mois, ma capacité à me souvenir des items de celui ci serait...</t>
-  </si>
-  <si>
-    <t>6. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... La tendance à avoir quelque chose que je savais «sur le bout de la langue», mais ne pas arriver à le retrouver est...</t>
-  </si>
-  <si>
-    <t>7. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à se rappeler ce qui s'est passé il y a longtemps est...</t>
-  </si>
-  <si>
-    <t>8. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à se souvenir des noms et des visages des gens que je rencontre est...</t>
-  </si>
-  <si>
-    <t>9. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à me rappeler ce que je faisais avant de m’être changé les idées pendant quelques minutes est...</t>
-  </si>
-  <si>
-    <t>10. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à me souvenir de choses qui se sont produites il y a plus d'un an est...</t>
-  </si>
-  <si>
-    <t>11. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité de me rappeler ce que je lis ou regarde à la télévision est...</t>
-  </si>
-  <si>
-    <t>12. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à me rappeler ce qui s'est passé pendant mon enfance est...</t>
-  </si>
-  <si>
-    <t>13. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à savoir si les choses auxquelles je suis attentif vont me rester en mémoire est...</t>
-  </si>
-  <si>
-    <t>14. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à donner du sens à ce que les gens m'expliquent est...</t>
-  </si>
-  <si>
-    <t>15. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à me remémorer ce qui s’est passé il y a quelques minutes est...</t>
-  </si>
-  <si>
-    <t>16. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à prêter attention à ce qui se passe autour de moi est...</t>
-  </si>
-  <si>
-    <t>17. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité générale à être attentif à ce qui se passe autour de moi est...</t>
-  </si>
-  <si>
-    <t>18. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT... Ma capacité à suivre ce que disent les gens est...</t>
-  </si>
-  <si>
     <t>-4 \n\n Pire que jamais</t>
   </si>
   <si>
@@ -106,12 +53,66 @@
   </si>
   <si>
     <t xml:space="preserve">3 \n\n  </t>
+  </si>
+  <si>
+    <t>3. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à me souvenir de choses quand j’essaye vraiment est...</t>
+  </si>
+  <si>
+    <t>2. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMes parents et connaissances jugent que ma mémoire actuelle est...</t>
+  </si>
+  <si>
+    <t>1. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à retrouver et à me remémorer le nom de personnes ou des souvenirs que je sais connaître est...</t>
+  </si>
+  <si>
+    <t>4. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à retenir des choses que j'ai apprise est...</t>
+  </si>
+  <si>
+    <t>5. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nSi l’on m’interrogeait sur ce questionnaire dans un mois, ma capacité à me souvenir des items de celui ci serait...</t>
+  </si>
+  <si>
+    <t>6. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nLa tendance à avoir quelque chose que je savais «sur le bout de la langue», mais ne pas arriver à le retrouver est...</t>
+  </si>
+  <si>
+    <t>7. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à se rappeler ce qui s'est passé il y a longtemps est...</t>
+  </si>
+  <si>
+    <t>8. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à se souvenir des noms et des visages des gens que je rencontre est...</t>
+  </si>
+  <si>
+    <t>9. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à me rappeler ce que je faisais avant de m’être changé les idées pendant quelques minutes est...</t>
+  </si>
+  <si>
+    <t>10. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à me souvenir de choses qui se sont produites il y a plus d'un an est...</t>
+  </si>
+  <si>
+    <t>11. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité de me rappeler ce que je lis ou regarde à la télévision est...</t>
+  </si>
+  <si>
+    <t>12. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à me rappeler ce qui s'est passé pendant mon enfance est...</t>
+  </si>
+  <si>
+    <t>13. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à savoir si les choses auxquelles je suis attentif vont me rester en mémoire est...</t>
+  </si>
+  <si>
+    <t>14. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à donner du sens à ce que les gens m'expliquent est...</t>
+  </si>
+  <si>
+    <t>15. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à me remémorer ce qui s’est passé il y a quelques minutes est...</t>
+  </si>
+  <si>
+    <t>16. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à prêter attention à ce qui se passe autour de moi est...</t>
+  </si>
+  <si>
+    <t>17. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité générale à être attentif à ce qui se passe autour de moi est...</t>
+  </si>
+  <si>
+    <t>18. En comparant par rapport à mes capacités avant d’être malade et d'être traité par ECT...\n\nMa capacité à suivre ce que disent les gens est...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -463,10 +464,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
@@ -474,92 +475,92 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -568,10 +569,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -583,31 +584,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
